--- a/tut04/output_by_subject/HS451.xlsx
+++ b/tut04/output_by_subject/HS451.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:A30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,660 +424,210 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>rollno</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>register_sem</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>subno</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>sub_type</t>
+          <t>rollnoregister_semsubnosub_type</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1801CE07</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>HS451</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Open Elective - III</t>
+          <t>1801CE077HS451Open Elective - III</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1801CB20</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>HS451</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Open Elective - III</t>
+          <t>1801CB207HS451Open Elective - III</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1801CS12</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>HS451</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Open Elective</t>
+          <t>1801CS127HS451Open Elective</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1801CE10</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>HS451</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Open Elective - III</t>
+          <t>1801CE107HS451Open Elective - III</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1801CS32</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>HS451</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Open Elective</t>
+          <t>1801CS327HS451Open Elective</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1801CS45</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>HS451</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Open Elective</t>
+          <t>1801CS457HS451Open Elective</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1801EE25</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>HS451</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Open Elective</t>
+          <t>1801EE257HS451Open Elective</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1801EE26</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>HS451</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Open Elective</t>
+          <t>1801EE267HS451Open Elective</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1801EE27</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>HS451</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Open Elective</t>
+          <t>1801EE277HS451Open Elective</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1801EE28</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>HS451</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Open Elective</t>
+          <t>1801EE287HS451Open Elective</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1801EE32</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>HS451</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Open Elective</t>
+          <t>1801EE327HS451Open Elective</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1801CS36</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>HS451</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Open Elective</t>
+          <t>1801CS367HS451Open Elective</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1801CS37</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>HS451</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Open Elective</t>
+          <t>1801CS377HS451Open Elective</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1801CS38</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>HS451</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Open Elective</t>
+          <t>1801CS387HS451Open Elective</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1801EE69</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>HS451</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Open Elective</t>
+          <t>1801EE697HS451Open Elective</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1801CS35</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>HS451</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Open Elective</t>
+          <t>1801CS357HS451Open Elective</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1801CB24</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>HS451</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Open Elective - III</t>
+          <t>1801CB247HS451Open Elective - III</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1801CS40</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>HS451</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Open Elective</t>
+          <t>1801CS407HS451Open Elective</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1801CB27</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>HS451</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Open Elective - III</t>
+          <t>1801CB277HS451Open Elective - III</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1801CS48</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>HS451</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Open Elective</t>
+          <t>1801CS487HS451Open Elective</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1801CS49</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>HS451</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Open Elective</t>
+          <t>1801CS497HS451Open Elective</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1801CS51</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>HS451</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Open Elective</t>
+          <t>1801CS517HS451Open Elective</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1801CS68</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>HS451</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Open Elective</t>
+          <t>1801CS687HS451Open Elective</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1801EE50</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>HS451</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Open Elective</t>
+          <t>1801EE507HS451Open Elective</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1801CS41</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>HS451</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Open Elective</t>
+          <t>1801CS417HS451Open Elective</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1801ME59</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>HS451</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Open Elective - III</t>
+          <t>1801ME597HS451Open Elective - III</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1801CE09</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>HS451</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Open Elective - III</t>
+          <t>1801CE097HS451Open Elective - III</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1801CS06</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>HS451</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Open Elective</t>
+          <t>1801CS067HS451Open Elective</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1801ME26</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>HS451</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Open Elective - III</t>
+          <t>1801ME267HS451Open Elective - III</t>
         </is>
       </c>
     </row>
